--- a/Vertiefungspraktikum/Auswertung.xlsx
+++ b/Vertiefungspraktikum/Auswertung.xlsx
@@ -2936,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>

--- a/Vertiefungspraktikum/Auswertung.xlsx
+++ b/Vertiefungspraktikum/Auswertung.xlsx
@@ -368,6 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,7 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2936,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="19">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -2996,7 +2996,7 @@
       <c r="F2" s="3">
         <v>397.4</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="18">
         <v>5129</v>
       </c>
       <c r="M2" s="14">
@@ -3017,7 +3017,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -3091,7 +3091,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>10</v>
       </c>
       <c r="B5" s="2">
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -3167,7 +3167,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -3204,7 +3204,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>15</v>
       </c>
       <c r="B8" s="2">
@@ -3243,7 +3243,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>20</v>
       </c>
       <c r="B11" s="2">
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>25</v>
       </c>
       <c r="B14" s="2">
@@ -3442,7 +3442,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5">
         <v>3</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>30</v>
       </c>
       <c r="B17" s="2">
@@ -3474,7 +3474,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="1">
         <v>2</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>35</v>
       </c>
       <c r="B20" s="2">
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="1">
         <v>2</v>
       </c>
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5">
         <v>3</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <v>40</v>
       </c>
       <c r="B23" s="2">
@@ -3562,7 +3562,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>45</v>
       </c>
       <c r="B26" s="2">
@@ -3594,7 +3594,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5">
         <v>3</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <v>50</v>
       </c>
       <c r="B29" s="2">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="1">
         <v>2</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="5">
         <v>3</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="19">
         <v>55</v>
       </c>
       <c r="B32" s="2">
@@ -3690,7 +3690,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="1">
         <v>2</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5">
         <v>3</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>60</v>
       </c>
       <c r="B35" s="2">
@@ -3746,7 +3746,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="1">
         <v>2</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="5">
         <v>3</v>
       </c>
@@ -3798,7 +3798,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F37"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,485 +3823,821 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
+        <f>Sheet1!C2</f>
         <v>-28.97</v>
       </c>
       <c r="D2" s="2">
+        <f>Sheet1!D2</f>
         <v>1.6</v>
       </c>
       <c r="E2" s="2">
+        <f>Sheet1!E2</f>
         <v>-0.8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
+        <f>Sheet1!F2</f>
         <v>397.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
+        <f>Sheet1!C3</f>
         <v>-29.16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
+        <f>Sheet1!D3</f>
         <v>1.49</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
+        <f>Sheet1!E3</f>
         <v>-0.84</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
+        <f>Sheet1!F3</f>
         <v>355.7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
+        <f>Sheet1!C4</f>
         <v>-29.38</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
+        <f>Sheet1!D4</f>
         <v>1.53</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
+        <f>Sheet1!E4</f>
         <v>-0.83</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
+        <f>Sheet1!F4</f>
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
+        <f>Sheet1!C5</f>
         <v>-29.02</v>
       </c>
       <c r="D5" s="2">
+        <f>Sheet1!D5</f>
         <v>1.39</v>
       </c>
       <c r="E5" s="2">
+        <f>Sheet1!E5</f>
         <v>-1.64</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
+        <f>Sheet1!F5</f>
         <v>340.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
+        <f>Sheet1!C6</f>
         <v>-29.35</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
+        <f>Sheet1!D6</f>
         <v>0.89</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
+        <f>Sheet1!E6</f>
         <v>-1.65</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
+        <f>Sheet1!F6</f>
         <v>370.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
+        <f>Sheet1!C7</f>
         <v>-28.6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
+        <f>Sheet1!D7</f>
         <v>0.94</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
+        <f>Sheet1!E7</f>
         <v>-1.59</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
+        <f>Sheet1!F7</f>
         <v>361.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
+        <f>Sheet1!C8</f>
         <v>-28.87</v>
       </c>
       <c r="D8" s="2">
+        <f>Sheet1!D8</f>
         <v>0.26</v>
       </c>
       <c r="E8" s="2">
+        <f>Sheet1!E8</f>
         <v>-2.8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
+        <f>Sheet1!F8</f>
         <v>311.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
+        <f>Sheet1!C9</f>
         <v>-28.08</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
+        <f>Sheet1!D9</f>
         <v>0.17</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
+        <f>Sheet1!E9</f>
         <v>-2.91</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
+        <f>Sheet1!F9</f>
         <v>308.7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
+        <f>Sheet1!C10</f>
         <v>-28.38</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
+        <f>Sheet1!D10</f>
         <v>-0.06</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
+        <f>Sheet1!E10</f>
         <v>-3.04</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
+        <f>Sheet1!F10</f>
         <v>238.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2">
+        <f>Sheet1!C11</f>
         <v>-28.26</v>
       </c>
       <c r="D11" s="2">
+        <f>Sheet1!D11</f>
         <v>-0.11</v>
       </c>
       <c r="E11" s="2">
+        <f>Sheet1!E11</f>
         <v>-308</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
+        <f>Sheet1!F11</f>
         <v>275.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
+        <f>Sheet1!C12</f>
         <v>-28.83</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
+        <f>Sheet1!D12</f>
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
+        <f>Sheet1!E12</f>
         <v>-4.72</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
+        <f>Sheet1!F12</f>
         <v>112.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
+        <f>Sheet1!C13</f>
         <v>-28.88</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
+        <f>Sheet1!D13</f>
         <v>-1.0900000000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
+        <f>Sheet1!E13</f>
         <v>-4.71</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
+        <f>Sheet1!F13</f>
         <v>112.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>25</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="C14" s="2">
+        <f>Sheet1!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f>Sheet1!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f>Sheet1!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f>Sheet1!F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="2">
+        <f>Sheet1!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <f>Sheet1!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f>Sheet1!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f>Sheet1!F15</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="C16" s="2">
+        <f>Sheet1!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f>Sheet1!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f>Sheet1!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f>Sheet1!F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="C17" s="2">
+        <f>Sheet1!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f>Sheet1!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f>Sheet1!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f>Sheet1!F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="2">
+        <f>Sheet1!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f>Sheet1!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f>Sheet1!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f>Sheet1!F18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="C19" s="2">
+        <f>Sheet1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f>Sheet1!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f>Sheet1!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f>Sheet1!F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="C20" s="2">
+        <f>Sheet1!C20</f>
+        <v>-27.67</v>
+      </c>
+      <c r="D20" s="2">
+        <f>Sheet1!D20</f>
+        <v>-2.56</v>
+      </c>
+      <c r="E20" s="2">
+        <f>Sheet1!E20</f>
+        <v>-6.92</v>
+      </c>
+      <c r="F20" s="2">
+        <f>Sheet1!F20</f>
+        <v>186.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="2">
+        <f>Sheet1!C21</f>
+        <v>-27.8</v>
+      </c>
+      <c r="D21" s="2">
+        <f>Sheet1!D21</f>
+        <v>-1.3</v>
+      </c>
+      <c r="E21" s="2">
+        <f>Sheet1!E21</f>
+        <v>-4.4400000000000004</v>
+      </c>
+      <c r="F21" s="2">
+        <f>Sheet1!F21</f>
+        <v>153.80000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="C22" s="2">
+        <f>Sheet1!C22</f>
+        <v>-27.88</v>
+      </c>
+      <c r="D22" s="2">
+        <f>Sheet1!D22</f>
+        <v>-1.71</v>
+      </c>
+      <c r="E22" s="2">
+        <f>Sheet1!E22</f>
+        <v>-5.5</v>
+      </c>
+      <c r="F22" s="2">
+        <f>Sheet1!F22</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="C23" s="2">
+        <f>Sheet1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <f>Sheet1!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <f>Sheet1!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <f>Sheet1!F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="2">
+        <f>Sheet1!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <f>Sheet1!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <f>Sheet1!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <f>Sheet1!F24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5">
         <v>3</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="C25" s="2">
+        <f>Sheet1!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <f>Sheet1!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <f>Sheet1!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f>Sheet1!F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
         <v>45</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="C26" s="2">
+        <f>Sheet1!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f>Sheet1!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f>Sheet1!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>Sheet1!F26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="2">
+        <f>Sheet1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f>Sheet1!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f>Sheet1!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f>Sheet1!F27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5">
         <v>3</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="C28" s="2">
+        <f>Sheet1!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f>Sheet1!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f>Sheet1!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f>Sheet1!F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="C29" s="2">
+        <f>Sheet1!C29</f>
+        <v>-28.03</v>
+      </c>
+      <c r="D29" s="2">
+        <f>Sheet1!D29</f>
+        <v>-0.75</v>
+      </c>
+      <c r="E29" s="2">
+        <f>Sheet1!E29</f>
+        <v>-3.96</v>
+      </c>
+      <c r="F29" s="2">
+        <f>Sheet1!F29</f>
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
       <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="2">
+        <f>Sheet1!C30</f>
+        <v>-27.36</v>
+      </c>
+      <c r="D30" s="2">
+        <f>Sheet1!D30</f>
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <f>Sheet1!E30</f>
+        <v>-4.25</v>
+      </c>
+      <c r="F30" s="2">
+        <f>Sheet1!F30</f>
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="5">
         <v>3</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="C31" s="2">
+        <f>Sheet1!C31</f>
+        <v>-28.07</v>
+      </c>
+      <c r="D31" s="2">
+        <f>Sheet1!D31</f>
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <f>Sheet1!E31</f>
+        <v>-3.98</v>
+      </c>
+      <c r="F31" s="2">
+        <f>Sheet1!F31</f>
+        <v>163.19999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
         <v>55</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="C32" s="2">
+        <f>Sheet1!C32</f>
+        <v>-27.52</v>
+      </c>
+      <c r="D32" s="2">
+        <f>Sheet1!D32</f>
+        <v>-0.71</v>
+      </c>
+      <c r="E32" s="2">
+        <f>Sheet1!E32</f>
+        <v>-3.54</v>
+      </c>
+      <c r="F32" s="2">
+        <f>Sheet1!F32</f>
+        <v>155.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
       <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="4"/>
+      <c r="C33" s="2">
+        <f>Sheet1!C33</f>
+        <v>-28.61</v>
+      </c>
+      <c r="D33" s="2">
+        <f>Sheet1!D33</f>
+        <v>-0.87</v>
+      </c>
+      <c r="E33" s="2">
+        <f>Sheet1!E33</f>
+        <v>-3.94</v>
+      </c>
+      <c r="F33" s="2">
+        <f>Sheet1!F33</f>
+        <v>157.19999999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5">
         <v>3</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="C34" s="2">
+        <f>Sheet1!C34</f>
+        <v>-27.85</v>
+      </c>
+      <c r="D34" s="2">
+        <f>Sheet1!D34</f>
+        <v>-0.88</v>
+      </c>
+      <c r="E34" s="2">
+        <f>Sheet1!E34</f>
+        <v>-3.62</v>
+      </c>
+      <c r="F34" s="2">
+        <f>Sheet1!F34</f>
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>60</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="C35" s="2">
+        <f>Sheet1!C35</f>
+        <v>-27.99</v>
+      </c>
+      <c r="D35" s="2">
+        <f>Sheet1!D35</f>
+        <v>-0.95</v>
+      </c>
+      <c r="E35" s="2">
+        <f>Sheet1!E35</f>
+        <v>-3.81</v>
+      </c>
+      <c r="F35" s="2">
+        <f>Sheet1!F35</f>
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
       <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="4"/>
+      <c r="C36" s="2">
+        <f>Sheet1!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <f>Sheet1!D36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <f>Sheet1!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <f>Sheet1!F36</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="5">
         <v>3</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="2">
+        <f>Sheet1!C37</f>
+        <v>-27.91</v>
+      </c>
+      <c r="D37" s="2">
+        <f>Sheet1!D37</f>
+        <v>-0.9</v>
+      </c>
+      <c r="E37" s="2">
+        <f>Sheet1!E37</f>
+        <v>-3.94</v>
+      </c>
+      <c r="F37" s="2">
+        <f>Sheet1!F37</f>
+        <v>170.3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
